--- a/Tratamento/src/Dados_limpos/novos/limpo_petz_20251001_170551.xlsx
+++ b/Tratamento/src/Dados_limpos/novos/limpo_petz_20251001_170551.xlsx
@@ -5259,7 +5259,7 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5559,7 +5559,7 @@
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5707,7 +5707,7 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5855,7 +5855,7 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
